--- a/Sort and Filter (Parikshita Gaikwad).xlsx
+++ b/Sort and Filter (Parikshita Gaikwad).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\parikshita\Anudip\Excel\Assignments\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3ED4304-1976-4C53-A4CB-A89880FF1666}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B67F3E9-C61C-4349-98C8-65098DE2FD77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="6" xr2:uid="{B6EAAADC-1E6C-4068-99DF-7F4F0ECFFBEE}"/>
   </bookViews>
@@ -276,7 +276,7 @@
     <cellStyle name="Heading 4" xfId="1" builtinId="19"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="64">
+  <dxfs count="56">
     <dxf>
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
@@ -359,13 +359,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -375,6 +368,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -497,13 +497,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -513,6 +506,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -635,13 +635,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -651,6 +644,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -773,13 +773,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -789,6 +782,13 @@
         <top style="thin">
           <color indexed="64"/>
         </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -830,6 +830,109 @@
       </border>
     </dxf>
     <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <font>
         <b/>
         <i val="0"/>
@@ -946,13 +1049,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -968,39 +1064,11 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCC99FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <font>
@@ -1119,13 +1187,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="thin">
           <color indexed="64"/>
         </left>
@@ -1141,103 +1202,7 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
       <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
         <bottom style="thin">
           <color indexed="64"/>
         </bottom>
@@ -1278,27 +1243,6 @@
         <bottom/>
       </border>
     </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1312,57 +1256,2558 @@
 </styleSheet>
 </file>
 
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257173</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161926</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>85724</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89B39536-EC2C-DD02-C998-248DE57AD445}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3829048" y="352426"/>
+          <a:ext cx="4705351" cy="1714499"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Explanation For Task 1</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t>In task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" baseline="0">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> 1,we have to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ort the dataset alphabetically by the Product name in column A.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Solution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>We use the "Sort &amp; Filter" group present in the Editing Panel of the Home Tab.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Steps :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" marR="0" lvl="0" indent="-228600" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select the Product column.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" marR="0" lvl="0" indent="-228600" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Go to "Sort &amp; Filter" group.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" marR="0" lvl="0" indent="-228600" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select the option "Sort A to Z".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="dk1"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>238124</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>142876</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>114299</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>133351</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6B5D5F88-AF54-BD87-DABC-9DBE19DD7AC0}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3562349" y="333376"/>
+          <a:ext cx="4143375" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Explanation For Task 2</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 2,we have to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ort the dataset</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>by Sales in descending order. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Solution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>We use the "Sort &amp; Filter" group present in the Editing Panel of the Home Tab.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Steps :</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select the Sales column.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Go to "Sort &amp; Filter" group.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select the option "Sort largest to smallest".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:br>
+            <a:rPr lang="en-IN"/>
+          </a:br>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123823</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>571501</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5EC9C0D9-717D-635B-8C63-80FAE9B08663}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3705225" y="314323"/>
+          <a:ext cx="5191126" cy="2571751"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Explanation For Task 3</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 3,we have to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ort the dataset first by Region in alphabetical order, and then by Sales in ascending order within each Region. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Solution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>We use the "Sort &amp; Filter" group present in the Editing Panel of the Home Tab.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Steps :</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" b="1">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select the Sales column.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Go to "Sort &amp; Filter" group.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Slect the option "Custom sort".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The Custom Lists dialog box appears.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In the dialog box :</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="romanLcPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select "Regions" in "Sort by" field, Select "A to Z" in "Order" field.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="romanLcPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Click on "Add Level"</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" marR="0" lvl="0" indent="-285750" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="romanLcPeriod"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select "Sales" in "Sort by" field, Select "Smallest to Largest" in "Order" field.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing4.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58A62DC9-E3ED-B1D1-F3A3-503A6149A100}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3905250" y="552450"/>
+          <a:ext cx="4695825" cy="1943100"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Explanation For Task 4</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 4, we have to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pply a filter to display only the rows where the Product is "Product B". </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Solution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>We use the "Sort &amp; Filter" group present in the Editing Panel of the Home Tab.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Steps :</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select the dataset.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" marR="0" lvl="0" indent="-228600" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Go to "Sort &amp; Filter" group.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>Select the option "Filter".</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100"/>
+            <a:t>Click on the Filter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t> symbol (funnel) on the Product column.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0"/>
+            <a:t>Filter the column by selecting the check box of Product B.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing5.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>314325</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>257175</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BAF1F524-9861-5F14-F788-6114D2EC1C78}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4029075" y="314325"/>
+          <a:ext cx="5429250" cy="2390775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Explanation For Task 5</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 5, we have to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pply a filter to display only the rows where the Sales are greater than 150. </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Solution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>We use the "Sort &amp; Filter" group present in the Editing Panel of the Home Tab.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Steps :</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select the "Sales "column.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Go to "Sort &amp; Filter" group.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select the option "Filter".</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Click on the Filter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> symbol (funnel) on the Product column.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Click on "Number Filter" and select "Greater than" option .</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Enter the value 150 in the appeared pop up box .</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Click on "OK".</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>276225</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>180976</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>285750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>171451</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{073CA68E-28C1-D37E-C198-E3D1DC82E85F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3990975" y="371476"/>
+          <a:ext cx="4886325" cy="2095500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Explanation For Task 6</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 6, we have to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>pply a filter to display only the rows where the Date is in January 2024.</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Solution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>We use the "Sort &amp; Filter" group present in the Editing Panel of the Home Tab.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Steps :</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select the "Date"column.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Go to "Sort &amp; Filter" group.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select the option "Filter".</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Click on the Filter</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> symbol (funnel) on the Product column.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select the checker boxs of "2024" and "January"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>152399</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="TextBox 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E8B12D18-D556-F389-119F-B56340C82EF1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4086225" y="342899"/>
+          <a:ext cx="6448425" cy="2762251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="19050"/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1"/>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="lt1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Explanation For Task 7</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>:</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In task</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> 7, we have to </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>s</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>ort the dataset first by Date in chronological order, and then by Sales in descending order within each Date.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Solution</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> :</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>We use the "Sort &amp; Filter" group present in the Editing Panel of the Home Tab.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1"/>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="1" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Steps :</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select the dataset.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Go to "Sort &amp; Filter" group.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Slect the option "Custom sort".</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>The Custom Lists dialog box appears.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="228600" indent="-228600" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="arabicPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>In the dialog box :</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="romanLcPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select "Date" in "Sort by" field, Select "Oldest to Newest" in "Order" field.</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="romanLcPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Click on "Add Level"</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:pPr marL="285750" indent="-285750" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:buFont typeface="+mj-lt"/>
+            <a:buAutoNum type="romanLcPeriod"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-IN" sz="1100" b="0" i="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>Select "Sales" in "Sort by" field, Select "Largest to Smallest" in "Order" field.</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr lang="en-IN" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+          </a:br>
+          <a:endParaRPr lang="en-IN">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr lang="en-IN" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F23CBC97-2449-412F-9A25-0B6BDEC5C2A5}" name="Table1" displayName="Table1" ref="A2:D10" totalsRowShown="0" headerRowDxfId="60" headerRowBorderDxfId="58" tableBorderDxfId="59" totalsRowBorderDxfId="57" headerRowCellStyle="Heading 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{F23CBC97-2449-412F-9A25-0B6BDEC5C2A5}" name="Table1" displayName="Table1" ref="A2:D10" totalsRowShown="0" headerRowDxfId="55" headerRowBorderDxfId="54" tableBorderDxfId="53" totalsRowBorderDxfId="52" headerRowCellStyle="Heading 4">
   <autoFilter ref="A2:D10" xr:uid="{F23CBC97-2449-412F-9A25-0B6BDEC5C2A5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D10">
     <sortCondition ref="A2:A10"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{644A8EB7-4D3A-4B84-9160-CD87AC5AF13E}" name="Product" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{48617282-C838-45F2-A411-7810B444D093}" name="Region" dataDxfId="55"/>
-    <tableColumn id="3" xr3:uid="{A28D709A-9893-4BE3-8C0F-6A22747F4D5B}" name="Date" dataDxfId="54"/>
-    <tableColumn id="4" xr3:uid="{AD983FF2-53B2-44E7-8751-4ADFD4AD7452}" name="Sales" dataDxfId="53"/>
+    <tableColumn id="1" xr3:uid="{644A8EB7-4D3A-4B84-9160-CD87AC5AF13E}" name="Product" dataDxfId="51"/>
+    <tableColumn id="2" xr3:uid="{48617282-C838-45F2-A411-7810B444D093}" name="Region" dataDxfId="50"/>
+    <tableColumn id="3" xr3:uid="{A28D709A-9893-4BE3-8C0F-6A22747F4D5B}" name="Date" dataDxfId="49"/>
+    <tableColumn id="4" xr3:uid="{AD983FF2-53B2-44E7-8751-4ADFD4AD7452}" name="Sales" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight18" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CA7B2FDB-AAF7-4B23-B860-6B931D9F5FA6}" name="Table2" displayName="Table2" ref="A2:D10" totalsRowShown="0" headerRowDxfId="45" headerRowBorderDxfId="51" tableBorderDxfId="52" totalsRowBorderDxfId="50" headerRowCellStyle="Heading 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{CA7B2FDB-AAF7-4B23-B860-6B931D9F5FA6}" name="Table2" displayName="Table2" ref="A2:D10" totalsRowShown="0" headerRowDxfId="47" headerRowBorderDxfId="46" tableBorderDxfId="45" totalsRowBorderDxfId="44" headerRowCellStyle="Heading 4">
   <autoFilter ref="A2:D10" xr:uid="{CA7B2FDB-AAF7-4B23-B860-6B931D9F5FA6}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D10">
     <sortCondition descending="1" ref="D3:D10"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{A4D9A6B1-33C9-4CE0-A8D2-B14D912CC5A1}" name="Product" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{4413BC35-372C-48B5-A127-80CF39C920E2}" name="Region" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{08DFD7E1-F0C9-4170-90B3-4EE879E9EEC3}" name="Date" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{352F3632-F3AC-4667-AB56-E186B7425D94}" name="Sales" dataDxfId="46"/>
+    <tableColumn id="1" xr3:uid="{A4D9A6B1-33C9-4CE0-A8D2-B14D912CC5A1}" name="Product" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{4413BC35-372C-48B5-A127-80CF39C920E2}" name="Region" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{08DFD7E1-F0C9-4170-90B3-4EE879E9EEC3}" name="Date" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{352F3632-F3AC-4667-AB56-E186B7425D94}" name="Sales" dataDxfId="40"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2EFB7B3-803E-44BA-A7AB-FF12A942D65F}" name="Table3" displayName="Table3" ref="A2:D10" totalsRowShown="0" headerRowDxfId="32" headerRowBorderDxfId="38" tableBorderDxfId="39" totalsRowBorderDxfId="37" headerRowCellStyle="Heading 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{D2EFB7B3-803E-44BA-A7AB-FF12A942D65F}" name="Table3" displayName="Table3" ref="A2:D10" totalsRowShown="0" headerRowDxfId="39" headerRowBorderDxfId="38" tableBorderDxfId="37" totalsRowBorderDxfId="36" headerRowCellStyle="Heading 4">
   <autoFilter ref="A2:D10" xr:uid="{D2EFB7B3-803E-44BA-A7AB-FF12A942D65F}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D10">
     <sortCondition ref="B3:B10"/>
     <sortCondition ref="D3:D10"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{56162820-B55E-4CD4-9CED-CA80DD08E83A}" name="Product" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{34E9D067-B17A-4D89-986F-D6754C6287E0}" name="Region" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{6DAF0395-CEB4-4A53-BBA8-6915D042420B}" name="Date" dataDxfId="34"/>
-    <tableColumn id="4" xr3:uid="{FDF2439E-B113-49C2-93D8-4979EFE7E34A}" name="Sales" dataDxfId="33"/>
+    <tableColumn id="1" xr3:uid="{56162820-B55E-4CD4-9CED-CA80DD08E83A}" name="Product" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{34E9D067-B17A-4D89-986F-D6754C6287E0}" name="Region" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{6DAF0395-CEB4-4A53-BBA8-6915D042420B}" name="Date" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{FDF2439E-B113-49C2-93D8-4979EFE7E34A}" name="Sales" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4F4F610-4B84-4CA9-985F-5B825A5ECF8C}" name="Table35" displayName="Table35" ref="A2:D10" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="29" tableBorderDxfId="30" totalsRowBorderDxfId="28" headerRowCellStyle="Heading 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{D4F4F610-4B84-4CA9-985F-5B825A5ECF8C}" name="Table35" displayName="Table35" ref="A2:D10" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="30" tableBorderDxfId="29" totalsRowBorderDxfId="28" headerRowCellStyle="Heading 4">
   <autoFilter ref="A2:D10" xr:uid="{D4F4F610-4B84-4CA9-985F-5B825A5ECF8C}">
     <filterColumn colId="0">
       <filters>
@@ -1381,7 +3826,7 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{10DBD161-9B77-48BD-94F1-EB166B65722F}" name="Table36" displayName="Table36" ref="A2:D10" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="21" tableBorderDxfId="22" totalsRowBorderDxfId="20" headerRowCellStyle="Heading 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{10DBD161-9B77-48BD-94F1-EB166B65722F}" name="Table36" displayName="Table36" ref="A2:D10" totalsRowShown="0" headerRowDxfId="23" headerRowBorderDxfId="22" tableBorderDxfId="21" totalsRowBorderDxfId="20" headerRowCellStyle="Heading 4">
   <autoFilter ref="A2:D10" xr:uid="{10DBD161-9B77-48BD-94F1-EB166B65722F}">
     <filterColumn colId="3">
       <customFilters>
@@ -1400,7 +3845,7 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA76873E-F59C-487C-8032-1FDA5DDC03E5}" name="Table37" displayName="Table37" ref="A2:D10" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="13" tableBorderDxfId="14" totalsRowBorderDxfId="12" headerRowCellStyle="Heading 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{AA76873E-F59C-487C-8032-1FDA5DDC03E5}" name="Table37" displayName="Table37" ref="A2:D10" totalsRowShown="0" headerRowDxfId="15" headerRowBorderDxfId="14" tableBorderDxfId="13" totalsRowBorderDxfId="12" headerRowCellStyle="Heading 4">
   <autoFilter ref="A2:D10" xr:uid="{AA76873E-F59C-487C-8032-1FDA5DDC03E5}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{6795204D-B68E-492B-AA79-13DE987AD1ED}" name="Product" dataDxfId="11"/>
@@ -1413,7 +3858,7 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F321423D-3B80-455B-9058-CC5D5897EC9E}" name="Table38" displayName="Table38" ref="A2:D10" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="5" tableBorderDxfId="6" totalsRowBorderDxfId="4" headerRowCellStyle="Heading 4">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{F321423D-3B80-455B-9058-CC5D5897EC9E}" name="Table38" displayName="Table38" ref="A2:D10" totalsRowShown="0" headerRowDxfId="7" headerRowBorderDxfId="6" tableBorderDxfId="5" totalsRowBorderDxfId="4" headerRowCellStyle="Heading 4">
   <autoFilter ref="A2:D10" xr:uid="{F321423D-3B80-455B-9058-CC5D5897EC9E}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D10">
     <sortCondition ref="C3:C10"/>
@@ -1729,7 +4174,7 @@
   <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="H16" sqref="H16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1867,8 +4312,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1878,7 +4324,7 @@
   <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,8 +4462,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2027,7 +4474,7 @@
   <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,8 +4613,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2177,7 +4625,7 @@
   <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:D10"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2315,8 +4763,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2326,7 +4775,7 @@
   <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="N23" sqref="N23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2464,8 +4913,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2475,7 +4925,7 @@
   <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="C2" sqref="C2:C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2613,8 +5063,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2624,7 +5075,7 @@
   <dimension ref="A2:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J13" sqref="J13"/>
+      <selection activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2762,8 +5213,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>